--- a/biology/Zoologie/Cidarinae/Cidarinae.xlsx
+++ b/biology/Zoologie/Cidarinae/Cidarinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cidarinae sont une sous-famille d'oursins de l'ordre des Cidaroida et de la famille des Cidaridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-famille a été parfois attribuée à Theodor Mortensen, 1928. Toutefois le WoRMS considère ce taxon désormais comme invalide.
 </t>
@@ -542,10 +556,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers : le test (coquille) est plus ou moins sphérique, protégé par des radioles (piquants), l'ensemble suivant une symétrie pentaradiaire (centrale d'ordre 5) reliant la bouche (péristome) située au centre de la face orale (inférieure) à l'anus (périprocte) situé à l'apex aboral (pôle supérieur).
-Cette sous-famille se distingue par ses ambulacres pourvus d'un unique tubercule primaire de grande taille, perforé et généralement non crénulé. Ces espèces ne comportent pas de sillons interradiaux nus, et les tubercules scrobiculaires sont différenciés des granules extrascrobiculaires[1].
+Cette sous-famille se distingue par ses ambulacres pourvus d'un unique tubercule primaire de grande taille, perforé et généralement non crénulé. Ces espèces ne comportent pas de sillons interradiaux nus, et les tubercules scrobiculaires sont différenciés des granules extrascrobiculaires.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (27 novembre 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (27 novembre 2020) :
 † genre Almucidaris Blake &amp; Zinsmeister, 1991
 genre Calocidaris H.L. Clark, 1907
 genre Centrocidaris A. Agassiz, 1904
